--- a/data/trans_dic/P2C_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P2C_R-Edad-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,31; 9,07</t>
+          <t>4,51; 8,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,9; 12,42</t>
+          <t>6,67; 12,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,1; 14,54</t>
+          <t>7,98; 14,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,2; 12,39</t>
+          <t>3,92; 12,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,62; 15,99</t>
+          <t>9,47; 15,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>20,31; 28,66</t>
+          <t>20,41; 28,55</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,09; 29,86</t>
+          <t>20,62; 29,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,09; 15,67</t>
+          <t>6,27; 14,84</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,63; 11,26</t>
+          <t>7,6; 11,33</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>14,32; 19,08</t>
+          <t>14,31; 19,56</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>15,28; 20,64</t>
+          <t>15,33; 20,57</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,14; 12,41</t>
+          <t>6,18; 12,29</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>20,78; 27,31</t>
+          <t>20,97; 27,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>27,81; 35,1</t>
+          <t>27,97; 35,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>27,72; 35,81</t>
+          <t>28,0; 35,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,0; 16,86</t>
+          <t>8,79; 16,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>45,38; 53,33</t>
+          <t>45,14; 53,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>60,01; 68,04</t>
+          <t>59,73; 68,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>50,58; 58,53</t>
+          <t>50,83; 58,49</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,89; 26,05</t>
+          <t>17,86; 26,86</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>32,84; 38,26</t>
+          <t>32,81; 38,05</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>43,85; 49,32</t>
+          <t>43,92; 49,86</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>39,95; 45,57</t>
+          <t>40,09; 45,79</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>14,6; 20,61</t>
+          <t>14,76; 20,37</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>40,72; 48,45</t>
+          <t>40,38; 49,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>57,31; 65,01</t>
+          <t>57,36; 64,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>44,82; 52,74</t>
+          <t>44,79; 52,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>18,44; 25,61</t>
+          <t>18,05; 26,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>54,05; 61,66</t>
+          <t>54,37; 61,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>77,92; 83,99</t>
+          <t>77,74; 83,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>60,79; 68,07</t>
+          <t>61,11; 68,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>20,35; 28,02</t>
+          <t>20,8; 28,15</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>48,78; 54,25</t>
+          <t>48,6; 54,23</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>68,69; 73,75</t>
+          <t>68,99; 73,85</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>53,93; 59,49</t>
+          <t>54,01; 59,28</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>20,75; 25,98</t>
+          <t>20,45; 25,91</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,84; 25,04</t>
+          <t>18,03; 25,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>33,99; 42,16</t>
+          <t>33,99; 42,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>22,38; 29,77</t>
+          <t>22,57; 29,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,16; 17,0</t>
+          <t>10,37; 16,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,8; 27,63</t>
+          <t>19,94; 27,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>38,33; 47,0</t>
+          <t>38,56; 47,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>26,33; 33,11</t>
+          <t>26,15; 33,3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,64; 17,04</t>
+          <t>12,56; 16,84</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>20,09; 25,06</t>
+          <t>19,92; 25,53</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>37,39; 43,55</t>
+          <t>37,47; 43,23</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>25,28; 30,68</t>
+          <t>25,4; 30,41</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,44; 16,37</t>
+          <t>12,41; 16,28</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,47; 8,29</t>
+          <t>3,32; 8,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,29; 16,05</t>
+          <t>9,03; 15,68</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,0; 11,53</t>
+          <t>6,33; 11,81</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,82; 11,22</t>
+          <t>6,75; 11,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>13,25; 20,55</t>
+          <t>13,4; 20,89</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>18,33; 26,73</t>
+          <t>17,87; 26,69</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,32; 15,82</t>
+          <t>9,43; 15,83</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,56; 12,63</t>
+          <t>8,67; 12,66</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,18; 13,81</t>
+          <t>9,01; 13,73</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>14,89; 20,25</t>
+          <t>14,58; 20,0</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>8,56; 12,86</t>
+          <t>8,66; 12,74</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>8,1; 11,15</t>
+          <t>8,2; 11,12</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,12; 9,43</t>
+          <t>5,1; 9,64</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,31; 10,04</t>
+          <t>5,26; 10,12</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,58; 8,64</t>
+          <t>4,73; 8,79</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>12,25; 16,63</t>
+          <t>12,19; 16,5</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,44; 13,29</t>
+          <t>8,67; 13,17</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>9,79; 14,58</t>
+          <t>9,88; 14,68</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,23; 14,34</t>
+          <t>9,39; 14,59</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>21,52; 48,52</t>
+          <t>21,4; 51,77</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>7,54; 10,83</t>
+          <t>7,67; 10,95</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>8,46; 11,63</t>
+          <t>8,35; 11,81</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>7,85; 11,35</t>
+          <t>7,82; 11,24</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>18,31; 39,48</t>
+          <t>18,31; 40,86</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>18,77; 21,46</t>
+          <t>18,87; 21,71</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>27,69; 31,09</t>
+          <t>27,48; 30,75</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>22,37; 25,33</t>
+          <t>22,36; 25,43</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,18; 14,84</t>
+          <t>12,06; 14,73</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>28,72; 31,98</t>
+          <t>28,81; 32,01</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>41,4; 44,71</t>
+          <t>41,18; 44,5</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>31,61; 34,84</t>
+          <t>31,58; 34,86</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>17,66; 28,17</t>
+          <t>17,64; 29,35</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>24,26; 26,53</t>
+          <t>24,38; 26,51</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>35,11; 37,38</t>
+          <t>35,01; 37,3</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>27,49; 29,83</t>
+          <t>27,65; 29,89</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>15,54; 21,46</t>
+          <t>15,52; 22,13</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2C_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P2C_R-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,51; 8,88</t>
+          <t>4,38; 8,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,67; 12,05</t>
+          <t>6,55; 12,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,98; 14,36</t>
+          <t>8,01; 14,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,47; 15,71</t>
+          <t>9,46; 15,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>20,41; 28,55</t>
+          <t>20,26; 28,72</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,62; 29,51</t>
+          <t>20,99; 29,83</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,6; 11,33</t>
+          <t>7,59; 11,39</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>14,31; 19,56</t>
+          <t>14,13; 19,01</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>15,33; 20,57</t>
+          <t>15,1; 20,54</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>20,97; 27,53</t>
+          <t>21,17; 27,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>27,97; 35,43</t>
+          <t>28,14; 35,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>28,0; 35,35</t>
+          <t>28,23; 35,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>45,14; 53,24</t>
+          <t>45,2; 52,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>59,73; 68,15</t>
+          <t>60,17; 68,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>50,83; 58,49</t>
+          <t>50,63; 58,65</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>32,81; 38,05</t>
+          <t>32,79; 38,16</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>43,92; 49,86</t>
+          <t>44,0; 49,94</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>40,09; 45,79</t>
+          <t>40,14; 45,87</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>40,38; 49,19</t>
+          <t>40,61; 48,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>57,36; 64,75</t>
+          <t>56,96; 64,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>44,79; 52,49</t>
+          <t>44,75; 53,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>54,37; 61,98</t>
+          <t>54,34; 61,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>77,74; 83,86</t>
+          <t>77,88; 83,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>61,11; 68,36</t>
+          <t>60,78; 68,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>48,6; 54,23</t>
+          <t>48,61; 54,28</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>68,99; 73,85</t>
+          <t>68,61; 73,62</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>54,01; 59,28</t>
+          <t>54,16; 59,29</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,03; 25,47</t>
+          <t>17,91; 25,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>33,99; 42,27</t>
+          <t>33,91; 41,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>22,57; 29,79</t>
+          <t>22,48; 30,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,94; 27,1</t>
+          <t>19,78; 27,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>38,56; 47,06</t>
+          <t>38,53; 47,27</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>26,15; 33,3</t>
+          <t>26,23; 33,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>19,92; 25,53</t>
+          <t>20,05; 25,21</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>37,47; 43,23</t>
+          <t>37,17; 43,35</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>25,4; 30,41</t>
+          <t>25,27; 30,65</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,32; 8,05</t>
+          <t>3,42; 8,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,03; 15,68</t>
+          <t>9,25; 15,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,33; 11,81</t>
+          <t>5,96; 11,32</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>13,4; 20,89</t>
+          <t>13,24; 20,55</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>17,87; 26,69</t>
+          <t>18,36; 26,77</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,43; 15,83</t>
+          <t>9,44; 15,62</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,01; 13,73</t>
+          <t>9,06; 13,59</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>14,58; 20,0</t>
+          <t>14,88; 20,14</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>8,66; 12,74</t>
+          <t>8,53; 12,63</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,1; 9,64</t>
+          <t>4,8; 9,33</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,26; 10,12</t>
+          <t>5,49; 10,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,73; 8,79</t>
+          <t>4,55; 8,56</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,67; 13,17</t>
+          <t>8,6; 13,19</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>9,88; 14,68</t>
+          <t>9,88; 14,8</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,39; 14,59</t>
+          <t>9,4; 14,46</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>7,67; 10,95</t>
+          <t>7,64; 10,87</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>8,35; 11,81</t>
+          <t>8,4; 11,92</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>7,82; 11,24</t>
+          <t>7,84; 11,26</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>18,87; 21,71</t>
+          <t>18,83; 21,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>27,48; 30,75</t>
+          <t>27,65; 30,87</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>22,36; 25,43</t>
+          <t>22,25; 25,32</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>28,81; 32,01</t>
+          <t>28,74; 31,91</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>41,18; 44,5</t>
+          <t>41,09; 44,64</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>31,58; 34,86</t>
+          <t>31,76; 35,07</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>24,38; 26,51</t>
+          <t>24,32; 26,43</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>35,01; 37,3</t>
+          <t>34,98; 37,33</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>27,65; 29,89</t>
+          <t>27,51; 29,81</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">

--- a/data/trans_dic/P2C_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P2C_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Cuidados por parte del entrevistado/a (hogares con personas que requieren dedicación o cuidados especiales)</t>
+          <t>Hogares con al menos un miembro que requiere cuidados habituales por la persona entrevistada</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,47%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,24%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,01%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,35%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>12,25%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>24,31%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>25,1%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>10,21%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>9,28%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>16,57%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>17,85%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>8,74%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,38; 8,75</t>
+          <t>0; 0,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,55; 12,03</t>
+          <t>0; 1,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,01; 14,64</t>
+          <t>0; 1,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,92; 12,49</t>
+          <t>0; 1,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,46; 15,36</t>
+          <t>0; 0,95</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>20,26; 28,72</t>
+          <t>0; 0,9</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,99; 29,83</t>
+          <t>0; 1,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,27; 14,84</t>
+          <t>0; 0,92</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,59; 11,39</t>
+          <t>0; 0,49</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>14,13; 19,01</t>
+          <t>0; 0,5</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>15,1; 20,54</t>
+          <t>0; 0,6</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,18; 12,29</t>
+          <t>0; 0,51</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>24,12%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>31,47%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>31,65%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>12,56%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>49,06%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>64,16%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>54,65%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>21,69%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>35,58%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>46,85%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>42,88%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>17,47%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>21,17; 27,7</t>
+          <t>0; 0,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>28,14; 35,15</t>
+          <t>0; 0,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>28,23; 35,41</t>
+          <t>0; 0,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,79; 16,92</t>
+          <t>0; 0,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>45,2; 52,8</t>
+          <t>0; 0,5</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>60,17; 68,2</t>
+          <t>0; 0,48</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>50,63; 58,65</t>
+          <t>0; 0,52</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,86; 26,86</t>
+          <t>0; 0,42</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>32,79; 38,16</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>44,0; 49,94</t>
+          <t>0; 0,27</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>40,14; 45,87</t>
+          <t>0; 0,31</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>14,76; 20,37</t>
+          <t>0; 0,25</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>44,44%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>61,19%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>48,94%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>21,78%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>58,04%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>81,17%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>64,59%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>24,52%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>51,5%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>71,39%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>56,72%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>23,22%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>40,61; 48,41</t>
+          <t>0; 0,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>56,96; 64,49</t>
+          <t>0; 0,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>44,75; 53,13</t>
+          <t>0; 0,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>18,05; 26,0</t>
+          <t>0; 0,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>54,34; 61,78</t>
+          <t>0; 0,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>77,88; 83,86</t>
+          <t>0; 0,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>60,78; 68,13</t>
+          <t>0; 0,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>20,8; 28,15</t>
+          <t>0; 0,23</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>48,61; 54,28</t>
+          <t>0; 0,18</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>68,61; 73,62</t>
+          <t>0; 0,17</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>54,16; 59,29</t>
+          <t>0; 0,19</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>20,45; 25,91</t>
+          <t>0; 0,14</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>21,44%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>37,91%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>26,09%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13,94%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>23,44%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>42,97%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>29,68%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>14,81%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>22,44%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>40,44%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>27,89%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>14,38%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,91; 25,08</t>
+          <t>0; 0,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>33,91; 41,66</t>
+          <t>0; 0,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>22,48; 30,01</t>
+          <t>0; 0,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,37; 16,89</t>
+          <t>0; 0,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,78; 27,85</t>
+          <t>0; 0,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>38,53; 47,27</t>
+          <t>0; 0,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>26,23; 33,55</t>
+          <t>0; 0,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,56; 16,84</t>
+          <t>0; 0,17</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>20,05; 25,21</t>
+          <t>0; 0,38</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>37,17; 43,35</t>
+          <t>0; 0,32</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>25,27; 30,65</t>
+          <t>0; 0,32</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,41; 16,28</t>
+          <t>0; 0,11</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>12,19%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>8,66%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>8,74%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>16,87%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>22,22%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>12,3%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>10,48%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>11,25%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>17,31%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>10,52%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>9,61%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,42; 8,47</t>
+          <t>0; 1,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,25; 15,73</t>
+          <t>0; 1,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,96; 11,32</t>
+          <t>0; 1,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,75; 11,42</t>
+          <t>0; 0,29</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>13,24; 20,55</t>
+          <t>0; 0,97</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>18,36; 26,77</t>
+          <t>0; 0,94</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,44; 15,62</t>
+          <t>0; 1,07</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,67; 12,66</t>
+          <t>0; 0,19</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,06; 13,59</t>
+          <t>0; 0,63</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>14,88; 20,14</t>
+          <t>0; 0,57</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>8,53; 12,63</t>
+          <t>0; 0,65</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>8,2; 11,12</t>
+          <t>0; 0,12</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>7,12%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>7,41%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6,45%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>14,21%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>10,69%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>12,06%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>11,6%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>30,69%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>9,17%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>10,06%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>9,37%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>24,02%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,8; 9,33</t>
+          <t>0; 0,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,49; 10,04</t>
+          <t>0; 0,38</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,55; 8,56</t>
+          <t>0; 0,33</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>12,19; 16,5</t>
+          <t>0; 0,19</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,6; 13,19</t>
+          <t>0; 0,29</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>9,88; 14,8</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,4; 14,46</t>
+          <t>0; 0,31</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>21,4; 51,77</t>
+          <t>0; 0,11</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>7,64; 10,87</t>
+          <t>0; 0,16</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>8,4; 11,92</t>
+          <t>0; 0,16</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>7,84; 11,26</t>
+          <t>0; 0,16</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>18,31; 40,86</t>
+          <t>0; 0,07</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>20,18%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>29,25%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>23,82%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>13,45%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>30,36%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>42,91%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>33,25%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>20,4%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>25,34%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>36,21%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>28,64%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>17,14%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>18,83; 21,65</t>
+          <t>0; 0,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>27,65; 30,87</t>
+          <t>0; 0,1</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>22,25; 25,32</t>
+          <t>0; 0,1</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,06; 14,73</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>28,74; 31,91</t>
+          <t>0; 0,09</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>41,09; 44,64</t>
+          <t>0; 0,08</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>31,76; 35,07</t>
+          <t>0; 0,09</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>17,64; 29,35</t>
+          <t>0; 0,04</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>24,32; 26,43</t>
+          <t>0; 0,05</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>34,98; 37,33</t>
+          <t>0; 0,04</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>27,51; 29,81</t>
+          <t>0; 0,05</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>15,52; 22,13</t>
+          <t>0; 0,02</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2C_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P2C_R-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,01%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,62%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,09%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,42%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,68%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,23%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,62%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,68%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,88%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,96%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,53%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,98</t>
+          <t>14,37; 26,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,1</t>
+          <t>23,77; 37,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,33</t>
+          <t>24,4; 39,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,11</t>
+          <t>1,22; 6,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,95</t>
+          <t>27,14; 40,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>48,26; 61,1</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,08</t>
+          <t>50,47; 65,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>3,67; 11,4</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>22,49; 30,86</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>38,76; 48,49</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>40,45; 51,23</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>2,87; 6,9</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,38%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,06%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,56%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,54%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,16%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,88%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,53%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,73%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,8%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,69%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,65%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,65</t>
+          <t>52,38; 63,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>62,33; 73,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,77</t>
+          <t>68,86; 79,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>5,24; 11,41</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>71,99; 80,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>89,16; 94,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>83,05; 89,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>10,74; 21,2</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>64,9; 71,92</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>78,94; 84,75</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>78,24; 84,67</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>9,41; 15,35</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,27%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,42%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,99%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,94%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,31%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,93%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,61%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,86%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,11%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,03%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,09%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,47%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>55,94; 64,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>70,16; 78,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>67,39; 75,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>13,67; 20,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>65,29; 72,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>92,72; 96,42</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>76,15; 82,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>14,58; 23,42</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>62,31; 67,91</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>82,87; 87,05</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>73,34; 78,66</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>15,64; 20,95</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,2%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,67%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,41%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,51%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>53,78%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,39%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,62%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,41%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,87%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,46%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,33%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,69%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>35,58; 47,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>59,79; 69,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>45,63; 56,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>2,92; 11,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,83</t>
+          <t>47,29; 60,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>81,33; 90,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,65</t>
+          <t>56,23; 67,05</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>10,16; 14,62</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>42,35; 51,14</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>70,82; 77,89</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>52,03; 60,07</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>5,91; 12,13</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,07%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,49%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,69%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,03%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,24%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,87%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,84%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,79%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,34%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,97%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,7%</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1284,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,77</t>
+          <t>12,74; 29,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,45</t>
+          <t>36,8; 54,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,65</t>
+          <t>24,39; 40,92</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>4,05; 7,74</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>28,28; 41,68</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,94</t>
+          <t>38,97; 52,81</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,07</t>
+          <t>24,03; 37,06</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>6,24; 9,73</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>25,44; 35,96</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>40,02; 51,3</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,65</t>
+          <t>25,69; 36,64</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>5,48; 8,02</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,04%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,33%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,1%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,01%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,07%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,21%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,15%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,33%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,32%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,83%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,21%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>3,8; 9,23</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>7,18; 14,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>5,27; 11,7</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>2,51; 5,61</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>10,74; 17,65</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>10,58; 18,37</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>9,47; 17,55</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>6,29; 77,28</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>7,94; 12,64</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>9,88; 14,96</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>8,71; 13,65</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>4,94; 64,97</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,34%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,25%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,46%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,83%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,53%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,81%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,05%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,23%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,42%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,9%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,06%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>6,75; 14,68</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>4,61; 12,88</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>4,91; 11,09</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>4,81; 9,6</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>5,72; 12,44</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>8,73; 15,53</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>9,57; 17,46</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>5,6; 9,2</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>7,06; 11,97</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>7,86; 13,35</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>8,52; 13,86</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>5,68; 8,61</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>36,96%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>49,37%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>44,2%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>7,73%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>46,0%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>61,59%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>51,26%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>16,63%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>41,9%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>55,98%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>48,1%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>12,34%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>34,77; 39,3</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>47,28; 51,56</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>42,21; 46,47</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>5,85; 8,88</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>44,09; 48,17</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>59,67; 63,54</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>49,18; 53,38</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>11,45; 31,24</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>40,25; 43,36</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>54,48; 57,5</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>46,66; 49,84</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>9,41; 20,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P2C_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P2C_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14,37; 26,38</t>
+          <t>14,52; 26,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>23,77; 37,74</t>
+          <t>24,28; 37,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>24,4; 39,63</t>
+          <t>24,8; 40,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,22; 6,28</t>
+          <t>1,12; 6,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>27,14; 40,29</t>
+          <t>27,19; 40,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>48,26; 61,1</t>
+          <t>48,04; 61,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>50,47; 65,68</t>
+          <t>50,87; 64,97</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,67; 11,4</t>
+          <t>3,84; 11,2</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>22,49; 30,86</t>
+          <t>22,33; 31,09</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>38,76; 48,49</t>
+          <t>39,34; 49,48</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>40,45; 51,23</t>
+          <t>40,3; 51,22</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,87; 6,9</t>
+          <t>2,93; 6,81</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>52,38; 63,85</t>
+          <t>52,46; 63,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>62,33; 73,38</t>
+          <t>61,95; 73,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>68,86; 79,65</t>
+          <t>68,88; 80,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,24; 11,41</t>
+          <t>5,33; 11,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>71,99; 80,49</t>
+          <t>72,17; 80,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>89,16; 94,62</t>
+          <t>89,11; 94,46</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>83,05; 89,95</t>
+          <t>83,09; 89,96</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,74; 21,2</t>
+          <t>10,3; 20,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>64,9; 71,92</t>
+          <t>65,4; 71,93</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>78,94; 84,75</t>
+          <t>78,77; 84,57</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>78,24; 84,67</t>
+          <t>78,34; 84,84</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,41; 15,35</t>
+          <t>9,28; 15,52</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>55,94; 64,46</t>
+          <t>56,12; 64,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>70,16; 78,05</t>
+          <t>70,43; 77,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>67,39; 75,92</t>
+          <t>66,91; 75,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,67; 20,31</t>
+          <t>13,83; 20,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>65,29; 72,94</t>
+          <t>65,49; 72,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>92,72; 96,42</t>
+          <t>92,8; 96,54</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>76,15; 82,95</t>
+          <t>75,89; 82,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,58; 23,42</t>
+          <t>14,78; 22,85</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>62,31; 67,91</t>
+          <t>62,24; 68,24</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>82,87; 87,05</t>
+          <t>82,75; 86,92</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>73,34; 78,66</t>
+          <t>73,49; 78,73</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>15,64; 20,95</t>
+          <t>15,63; 20,74</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>35,58; 47,43</t>
+          <t>35,69; 47,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>59,79; 69,8</t>
+          <t>58,84; 69,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>45,63; 56,91</t>
+          <t>45,17; 56,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,92; 11,15</t>
+          <t>3,18; 11,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>47,29; 60,45</t>
+          <t>47,2; 60,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>81,33; 90,01</t>
+          <t>82,0; 89,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>56,23; 67,05</t>
+          <t>55,37; 66,89</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,16; 14,62</t>
+          <t>10,13; 14,64</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>42,35; 51,14</t>
+          <t>42,31; 51,33</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>70,82; 77,89</t>
+          <t>70,44; 77,64</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>52,03; 60,07</t>
+          <t>52,15; 60,18</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,91; 12,13</t>
+          <t>5,86; 12,09</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>12,74; 29,06</t>
+          <t>13,31; 29,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>36,8; 54,19</t>
+          <t>37,06; 54,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>24,39; 40,92</t>
+          <t>24,82; 41,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,05; 7,74</t>
+          <t>4,0; 7,63</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>28,28; 41,68</t>
+          <t>28,06; 41,64</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>38,97; 52,81</t>
+          <t>37,87; 52,58</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>24,03; 37,06</t>
+          <t>23,68; 38,23</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,24; 9,73</t>
+          <t>6,3; 9,84</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>25,44; 35,96</t>
+          <t>25,14; 35,31</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>40,02; 51,3</t>
+          <t>40,02; 50,61</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>25,69; 36,64</t>
+          <t>25,8; 36,01</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,48; 8,02</t>
+          <t>5,53; 8,08</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,8; 9,23</t>
+          <t>3,71; 8,94</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,18; 14,75</t>
+          <t>7,08; 14,22</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,27; 11,7</t>
+          <t>5,43; 11,65</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,51; 5,61</t>
+          <t>2,42; 5,5</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>10,74; 17,65</t>
+          <t>10,74; 17,93</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>10,58; 18,37</t>
+          <t>10,8; 18,41</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,47; 17,55</t>
+          <t>9,69; 17,17</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,29; 77,28</t>
+          <t>6,07; 74,06</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>7,94; 12,64</t>
+          <t>8,24; 12,9</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>9,88; 14,96</t>
+          <t>9,98; 14,96</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>8,71; 13,65</t>
+          <t>8,53; 13,68</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>4,94; 64,97</t>
+          <t>4,95; 59,05</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,75; 14,68</t>
+          <t>6,61; 15,31</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,61; 12,88</t>
+          <t>4,82; 13,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,91; 11,09</t>
+          <t>4,9; 11,42</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,81; 9,6</t>
+          <t>4,74; 9,81</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,72; 12,44</t>
+          <t>5,9; 12,03</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,73; 15,53</t>
+          <t>8,68; 15,18</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>9,57; 17,46</t>
+          <t>9,42; 17,7</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,6; 9,2</t>
+          <t>5,66; 9,27</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>7,06; 11,97</t>
+          <t>6,92; 11,98</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>7,86; 13,35</t>
+          <t>7,95; 13,22</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>8,52; 13,86</t>
+          <t>8,44; 13,95</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>5,68; 8,61</t>
+          <t>5,69; 8,58</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>34,77; 39,3</t>
+          <t>34,72; 39,18</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>47,28; 51,56</t>
+          <t>47,11; 51,56</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>42,21; 46,47</t>
+          <t>41,86; 46,42</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5,85; 8,88</t>
+          <t>6,1; 8,84</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>44,09; 48,17</t>
+          <t>43,93; 47,96</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>59,67; 63,54</t>
+          <t>59,71; 63,48</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>49,18; 53,38</t>
+          <t>48,92; 53,39</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>11,45; 31,24</t>
+          <t>11,42; 32,69</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>40,25; 43,36</t>
+          <t>40,34; 43,43</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>54,48; 57,5</t>
+          <t>54,38; 57,44</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>46,66; 49,84</t>
+          <t>46,46; 49,6</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>9,41; 20,38</t>
+          <t>9,46; 21,65</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con al menos un miembro que requiere cuidados habituales por la persona entrevistada</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>38381</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>54037</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>49659</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>11595</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>63432</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>118550</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>101867</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>20740</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>101813</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>172586</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>151526</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>32335</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>27844; 50940</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>42851; 66628</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>38369; 61930</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>4496; 24260</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>51600; 77088</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>104137; 133851</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>88991; 113665</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>12024; 35088</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>85228; 118631</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>154728; 194592</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>132853; 168875</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>20886; 48556</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>366</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>465</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>578</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>505</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>179498</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>218163</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>194385</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>33674</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>312086</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>391512</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>311377</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>84638</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>491584</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>609675</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>505762</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>118312</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>161300; 196172</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>198561; 235052</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>179561; 208872</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>22556; 50321</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>294280; 328411</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>378541; 401263</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>297800; 322405</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>52750; 106933</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>467757; 514455</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>587100; 630318</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>484974; 525209</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>86806; 145197</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>408</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>389</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>545</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>433</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>685</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>953</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>753</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>307568</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>423869</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>334284</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>90853</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>408555</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>578861</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>430847</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>117549</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>716123</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>1002732</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>765130</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>208402</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>286406; 328377</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>401147; 443159</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>310706; 352024</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>74180; 110805</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>386077; 429970</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>565834; 588687</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>410725; 448135</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>87525; 135247</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>684569; 750545</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>975851; 1025009</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>739039; 791646</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>176403; 234033</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>452</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>119486</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>242627</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>174789</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>66636</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>128026</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>265845</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>194646</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>88449</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>247512</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>508472</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>369435</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>155085</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>103506; 137464</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>220744; 261634</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>153571; 192871</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>28192; 99658</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>112353; 144469</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>252323; 276634</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>174881; 211264</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>72185; 104372</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>223408; 271083</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>481039; 530174</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>342021; 394688</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>93805; 193459</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>21701</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>64495</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>42571</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>31387</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>70196</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>100491</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>61113</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>42978</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>91896</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>164986</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>103684</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>74365</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>14393; 31381</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>52533; 77486</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>32328; 54355</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>22438; 42797</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>56229; 83430</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>84114; 116798</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>48438; 78211</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>34524; 53939</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>77546; 108931</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>145615; 184150</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>86381; 120583</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>61335; 89661</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>17669</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>31599</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>24339</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>14053</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>47913</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>49215</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>45721</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>232082</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>65582</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>80814</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>70060</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>246135</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>10855; 26153</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>21670; 43526</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>16320; 35022</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>8920; 20264</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>36729; 61316</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>37787; 64435</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>33534; 59442</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>36918; 450536</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>52311; 81886</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>65431; 98122</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>55196; 88485</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>48322; 576650</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>21701</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>20452</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>18384</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>19317</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>28491</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>45549</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>51402</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>30738</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>50192</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>66001</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>69787</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>50055</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>13877; 32124</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>11943; 32893</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>12076; 28139</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>13404; 27740</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>19705; 40167</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>33485; 58547</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>37095; 69701</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>24094; 39489</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>37634; 65168</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>50352; 83772</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>54035; 89278</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>40335; 60824</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>679</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>997</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>793</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>1018</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>1439</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>1166</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>626</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>1697</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>2436</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>1959</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>917</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>706004</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>1055242</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>838411</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>267516</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>1058698</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>1550023</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>1196973</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>617174</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>1764702</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>2605265</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>2035384</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>884690</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>663183; 748468</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>1006826; 1101905</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>794075; 880538</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>211217; 305947</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>1010970; 1103813</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>1502778; 1597594</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>1142237; 1246758</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>423866; 1213729</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>1698885; 1829024</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>2530825; 2673145</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>1966355; 2099250</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>678344; 1552438</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>